--- a/tsuchiya/20181025機械学習パターン.xlsx
+++ b/tsuchiya/20181025機械学習パターン.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11640"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1293,16 +1293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44727</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>174431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>158199</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>90854</xdr:rowOff>
+      <xdr:colOff>390112</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>223375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1326,8 +1326,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="733426" y="23368635"/>
-          <a:ext cx="5143500" cy="2263140"/>
+          <a:off x="964097" y="32410344"/>
+          <a:ext cx="5157580" cy="2210705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,8 +1617,8 @@
   </sheetPr>
   <dimension ref="B2:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B52" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
